--- a/timesheets/ash/timesheet_second_semester.xlsx
+++ b/timesheets/ash/timesheet_second_semester.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ash/Desktop/Boulder/Fa23 Classes/canopy/admin/timesheets/ash/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7F20B08-61F7-AA42-BAB9-B71C27FEFEB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D4BF80A-93B2-4444-AE4A-8C89B3D77D03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20460" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22020" yWindow="-21100" windowWidth="34560" windowHeight="20440" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Week1" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,9 @@
     <sheet name="Week7" sheetId="7" r:id="rId7"/>
     <sheet name="Week8" sheetId="8" r:id="rId8"/>
     <sheet name="Week9" sheetId="12" r:id="rId9"/>
+    <sheet name="Week10" sheetId="13" r:id="rId10"/>
+    <sheet name="Week11" sheetId="14" r:id="rId11"/>
+    <sheet name="Week12" sheetId="15" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="30">
   <si>
     <t>Name</t>
   </si>
@@ -131,6 +134,9 @@
   </si>
   <si>
     <t>Visualization</t>
+  </si>
+  <si>
+    <t>Spring break :)</t>
   </si>
 </sst>
 </file>
@@ -233,7 +239,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -326,12 +332,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -377,6 +396,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1000,6 +1028,862 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A928843-B4E6-BD4D-B7DD-905C7D2E5154}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{123376B5-FC99-A448-88FA-63FC77CE1B35}">
+  <dimension ref="A1:I24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="26"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="26"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="13"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="13"/>
+      <c r="B4" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="13"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="17">
+        <v>45383</v>
+      </c>
+      <c r="C5" s="17">
+        <v>45384</v>
+      </c>
+      <c r="D5" s="17">
+        <v>45385</v>
+      </c>
+      <c r="E5" s="17">
+        <v>45386</v>
+      </c>
+      <c r="F5" s="17">
+        <v>45387</v>
+      </c>
+      <c r="G5" s="17">
+        <v>45388</v>
+      </c>
+      <c r="H5" s="17">
+        <v>45389</v>
+      </c>
+      <c r="I5" s="18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="4">
+        <f t="shared" ref="I6:I15" si="0">SUM(B6:H6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="19">
+        <v>1</v>
+      </c>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19">
+        <v>1</v>
+      </c>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19">
+        <v>1</v>
+      </c>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="19">
+        <v>2</v>
+      </c>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19">
+        <v>1</v>
+      </c>
+      <c r="F10" s="19">
+        <v>2</v>
+      </c>
+      <c r="G10" s="19">
+        <v>2</v>
+      </c>
+      <c r="H10" s="20"/>
+      <c r="I10" s="4">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19">
+        <v>1</v>
+      </c>
+      <c r="F11" s="19">
+        <v>1</v>
+      </c>
+      <c r="G11" s="19">
+        <v>1</v>
+      </c>
+      <c r="H11" s="20"/>
+      <c r="I11" s="4">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="20">
+        <v>2</v>
+      </c>
+      <c r="I12" s="4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="4">
+        <f>SUM(B6:B15)</f>
+        <v>3</v>
+      </c>
+      <c r="C16" s="4">
+        <f t="shared" ref="C16:H16" si="1">SUM(C6:C15)</f>
+        <v>0</v>
+      </c>
+      <c r="D16" s="4">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="E16" s="4">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="F16" s="4">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="G16" s="4">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="H16" s="4">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="I16" s="4">
+        <f>SUM(I6:I15)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="14"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="22"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="22"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" s="22"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="22"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="14"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" s="22"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B4:H4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDBE2258-678B-1B4E-8B7A-FABFE22C13FF}">
+  <dimension ref="A1:I24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="22" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="26"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="26"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="13"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="13"/>
+      <c r="B4" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="13"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="17">
+        <v>45390</v>
+      </c>
+      <c r="C5" s="17">
+        <v>45391</v>
+      </c>
+      <c r="D5" s="17">
+        <v>45392</v>
+      </c>
+      <c r="E5" s="17">
+        <v>45393</v>
+      </c>
+      <c r="F5" s="17">
+        <v>45394</v>
+      </c>
+      <c r="G5" s="17">
+        <v>45395</v>
+      </c>
+      <c r="H5" s="17">
+        <v>45396</v>
+      </c>
+      <c r="I5" s="31" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="19">
+        <v>1</v>
+      </c>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19">
+        <v>1</v>
+      </c>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19">
+        <v>1</v>
+      </c>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="19">
+        <v>2</v>
+      </c>
+      <c r="C10" s="19">
+        <v>2</v>
+      </c>
+      <c r="D10" s="19">
+        <v>2</v>
+      </c>
+      <c r="E10" s="19">
+        <v>2</v>
+      </c>
+      <c r="F10" s="19">
+        <v>2</v>
+      </c>
+      <c r="G10" s="19">
+        <v>2</v>
+      </c>
+      <c r="H10" s="20">
+        <v>2</v>
+      </c>
+      <c r="I10" s="21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="20">
+        <v>2</v>
+      </c>
+      <c r="I12" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="33">
+        <v>3</v>
+      </c>
+      <c r="C16" s="33">
+        <v>1</v>
+      </c>
+      <c r="D16" s="33">
+        <v>3</v>
+      </c>
+      <c r="E16" s="33">
+        <v>2</v>
+      </c>
+      <c r="F16" s="33">
+        <v>1</v>
+      </c>
+      <c r="G16" s="33">
+        <v>2</v>
+      </c>
+      <c r="H16" s="33">
+        <v>2</v>
+      </c>
+      <c r="I16" s="33">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="14"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="22"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="22"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" s="22"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="22"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="14"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" s="22"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B4:H4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FA69E54-CD6F-0D40-8020-0309A48E2F1E}">
   <dimension ref="A1:I24"/>
@@ -3856,8 +4740,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCB7425D-3BA0-6949-A6FD-665F8539449B}">
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L37" sqref="L37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L37" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/timesheets/ash/timesheet_second_semester.xlsx
+++ b/timesheets/ash/timesheet_second_semester.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ash/Desktop/Boulder/Fa23 Classes/canopy/admin/timesheets/ash/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D4BF80A-93B2-4444-AE4A-8C89B3D77D03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A832CFF-2FCD-F84F-AB60-B89BBEC99385}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22020" yWindow="-21100" windowWidth="34560" windowHeight="20440" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20440" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Week1" sheetId="1" r:id="rId1"/>
@@ -25,6 +25,7 @@
     <sheet name="Week10" sheetId="13" r:id="rId10"/>
     <sheet name="Week11" sheetId="14" r:id="rId11"/>
     <sheet name="Week12" sheetId="15" r:id="rId12"/>
+    <sheet name="Week13" sheetId="16" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="32">
   <si>
     <t>Name</t>
   </si>
@@ -137,6 +138,12 @@
   </si>
   <si>
     <t>Spring break :)</t>
+  </si>
+  <si>
+    <t>INSANE WEEK</t>
+  </si>
+  <si>
+    <t>tasks much harder than expected :( but almost done!</t>
   </si>
 </sst>
 </file>
@@ -374,6 +381,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -398,15 +407,13 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Explanatory Text" xfId="1" builtinId="53"/>
@@ -706,11 +713,11 @@
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
       <c r="E1" s="8"/>
       <c r="F1" s="8"/>
       <c r="G1" s="8"/>
@@ -721,11 +728,11 @@
       <c r="A2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
@@ -745,15 +752,15 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="8"/>
-      <c r="B4" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
+      <c r="B4" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
       <c r="I4" s="8"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -1053,7 +1060,7 @@
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="B16" sqref="B16:I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1065,11 +1072,11 @@
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="26"/>
-      <c r="D1" s="27"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="29"/>
       <c r="E1" s="13"/>
       <c r="F1" s="13"/>
       <c r="G1" s="13"/>
@@ -1080,11 +1087,11 @@
       <c r="A2" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="27"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="29"/>
       <c r="E2" s="13"/>
       <c r="F2" s="13"/>
       <c r="G2" s="13"/>
@@ -1104,15 +1111,15 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="13"/>
-      <c r="B4" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="30"/>
+      <c r="B4" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="32"/>
       <c r="I4" s="13"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -1479,8 +1486,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDBE2258-678B-1B4E-8B7A-FABFE22C13FF}">
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16:H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1492,11 +1499,11 @@
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="26"/>
-      <c r="D1" s="34"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="33"/>
       <c r="E1" s="13"/>
       <c r="F1" s="13"/>
       <c r="G1" s="13"/>
@@ -1507,11 +1514,11 @@
       <c r="A2" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="34"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="33"/>
       <c r="E2" s="13"/>
       <c r="F2" s="13"/>
       <c r="G2" s="13"/>
@@ -1531,15 +1538,15 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="13"/>
-      <c r="B4" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="35"/>
+      <c r="B4" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="34"/>
       <c r="I4" s="13"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -1567,12 +1574,12 @@
       <c r="H5" s="17">
         <v>45396</v>
       </c>
-      <c r="I5" s="31" t="s">
+      <c r="I5" s="23" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="24" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="19"/>
@@ -1587,7 +1594,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="24" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="19"/>
@@ -1602,7 +1609,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="32" t="s">
+      <c r="A8" s="24" t="s">
         <v>20</v>
       </c>
       <c r="B8" s="19">
@@ -1621,7 +1628,7 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="32" t="s">
+      <c r="A9" s="24" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="19"/>
@@ -1638,7 +1645,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="32" t="s">
+      <c r="A10" s="24" t="s">
         <v>25</v>
       </c>
       <c r="B10" s="19">
@@ -1667,7 +1674,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="32" t="s">
+      <c r="A11" s="24" t="s">
         <v>27</v>
       </c>
       <c r="B11" s="19"/>
@@ -1682,7 +1689,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="32" t="s">
+      <c r="A12" s="24" t="s">
         <v>21</v>
       </c>
       <c r="B12" s="19"/>
@@ -1699,7 +1706,7 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="32" t="s">
+      <c r="A13" s="24" t="s">
         <v>28</v>
       </c>
       <c r="B13" s="19"/>
@@ -1714,7 +1721,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="32" t="s">
+      <c r="A14" s="24" t="s">
         <v>10</v>
       </c>
       <c r="B14" s="19"/>
@@ -1729,7 +1736,7 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="32" t="s">
+      <c r="A15" s="24" t="s">
         <v>11</v>
       </c>
       <c r="B15" s="19"/>
@@ -1747,29 +1754,466 @@
       <c r="A16" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B16" s="33">
+      <c r="B16" s="4">
+        <f>SUM(B6:B15)</f>
         <v>3</v>
       </c>
-      <c r="C16" s="33">
-        <v>1</v>
-      </c>
-      <c r="D16" s="33">
+      <c r="C16" s="4">
+        <f t="shared" ref="C16:H16" si="0">SUM(C6:C15)</f>
+        <v>2</v>
+      </c>
+      <c r="D16" s="4">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E16" s="4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F16" s="4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G16" s="4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="H16" s="4">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="I16" s="4">
+        <f>SUM(I6:I15)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="14"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="22"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="22"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" s="22"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="22"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="14"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" s="22"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B4:H4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43AC76FF-E899-704D-B794-64B3C211A090}">
+  <dimension ref="A1:I24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="22" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="28"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="28"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="13"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="13"/>
+      <c r="B4" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="13"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="17">
+        <v>45397</v>
+      </c>
+      <c r="C5" s="17">
+        <v>45398</v>
+      </c>
+      <c r="D5" s="17">
+        <v>45399</v>
+      </c>
+      <c r="E5" s="17">
+        <v>45400</v>
+      </c>
+      <c r="F5" s="17">
+        <v>45401</v>
+      </c>
+      <c r="G5" s="17">
+        <v>45402</v>
+      </c>
+      <c r="H5" s="17">
+        <v>45403</v>
+      </c>
+      <c r="I5" s="23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="19">
+        <v>1</v>
+      </c>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19">
+        <v>1</v>
+      </c>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19">
+        <v>1</v>
+      </c>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="19">
+        <v>2</v>
+      </c>
+      <c r="C10" s="19">
+        <v>2</v>
+      </c>
+      <c r="D10" s="19">
+        <v>2</v>
+      </c>
+      <c r="E10" s="19">
+        <v>2</v>
+      </c>
+      <c r="F10" s="19">
+        <v>4</v>
+      </c>
+      <c r="G10" s="19">
+        <v>4</v>
+      </c>
+      <c r="H10" s="20"/>
+      <c r="I10" s="21">
         <v>3</v>
       </c>
-      <c r="E16" s="33">
-        <v>2</v>
-      </c>
-      <c r="F16" s="33">
-        <v>1</v>
-      </c>
-      <c r="G16" s="33">
-        <v>2</v>
-      </c>
-      <c r="H16" s="33">
-        <v>2</v>
-      </c>
-      <c r="I16" s="33">
-        <v>14</v>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="20">
+        <v>2</v>
+      </c>
+      <c r="I12" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19">
+        <v>3</v>
+      </c>
+      <c r="D13" s="19">
+        <v>3</v>
+      </c>
+      <c r="E13" s="19">
+        <v>3</v>
+      </c>
+      <c r="F13" s="19">
+        <v>3</v>
+      </c>
+      <c r="G13" s="19"/>
+      <c r="H13" s="20">
+        <v>3</v>
+      </c>
+      <c r="I13" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="4">
+        <f>SUM(B6:B15)</f>
+        <v>3</v>
+      </c>
+      <c r="C16" s="4">
+        <f t="shared" ref="C16:H16" si="0">SUM(C6:C15)</f>
+        <v>5</v>
+      </c>
+      <c r="D16" s="4">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="E16" s="4">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F16" s="4">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="G16" s="4">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="H16" s="4">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="I16" s="35">
+        <f>SUM(B16:H16)</f>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -1898,11 +2342,11 @@
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
       <c r="E1" s="8"/>
       <c r="F1" s="8"/>
       <c r="G1" s="8"/>
@@ -1913,11 +2357,11 @@
       <c r="A2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
@@ -1937,15 +2381,15 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="8"/>
-      <c r="B4" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
+      <c r="B4" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
       <c r="I4" s="8"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -2255,11 +2699,11 @@
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
       <c r="E1" s="8"/>
       <c r="F1" s="8"/>
       <c r="G1" s="8"/>
@@ -2270,11 +2714,11 @@
       <c r="A2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
@@ -2294,15 +2738,15 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="8"/>
-      <c r="B4" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
+      <c r="B4" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
       <c r="I4" s="8"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -2616,11 +3060,11 @@
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="26"/>
-      <c r="D1" s="27"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="29"/>
       <c r="E1" s="13"/>
       <c r="F1" s="13"/>
       <c r="G1" s="13"/>
@@ -2632,11 +3076,11 @@
       <c r="A2" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="27"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="29"/>
       <c r="E2" s="13"/>
       <c r="F2" s="13"/>
       <c r="G2" s="13"/>
@@ -2658,15 +3102,15 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="13"/>
-      <c r="B4" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="30"/>
+      <c r="B4" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="32"/>
       <c r="I4" s="13"/>
       <c r="J4" s="14"/>
     </row>
@@ -3066,11 +3510,11 @@
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="26"/>
-      <c r="D1" s="27"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="29"/>
       <c r="E1" s="13"/>
       <c r="F1" s="13"/>
       <c r="G1" s="13"/>
@@ -3081,11 +3525,11 @@
       <c r="A2" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="27"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="29"/>
       <c r="E2" s="13"/>
       <c r="F2" s="13"/>
       <c r="G2" s="13"/>
@@ -3105,15 +3549,15 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="13"/>
-      <c r="B4" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="30"/>
+      <c r="B4" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="32"/>
       <c r="I4" s="13"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -3486,11 +3930,11 @@
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="26"/>
-      <c r="D1" s="27"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="29"/>
       <c r="E1" s="13"/>
       <c r="F1" s="13"/>
       <c r="G1" s="13"/>
@@ -3501,11 +3945,11 @@
       <c r="A2" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="27"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="29"/>
       <c r="E2" s="13"/>
       <c r="F2" s="13"/>
       <c r="G2" s="13"/>
@@ -3525,15 +3969,15 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="13"/>
-      <c r="B4" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="30"/>
+      <c r="B4" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="32"/>
       <c r="I4" s="13"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -3908,11 +4352,11 @@
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="26"/>
-      <c r="D1" s="27"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="29"/>
       <c r="E1" s="13"/>
       <c r="F1" s="13"/>
       <c r="G1" s="13"/>
@@ -3923,11 +4367,11 @@
       <c r="A2" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="27"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="29"/>
       <c r="E2" s="13"/>
       <c r="F2" s="13"/>
       <c r="G2" s="13"/>
@@ -3947,15 +4391,15 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="13"/>
-      <c r="B4" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="30"/>
+      <c r="B4" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="32"/>
       <c r="I4" s="13"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -4328,11 +4772,11 @@
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="26"/>
-      <c r="D1" s="27"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="29"/>
       <c r="E1" s="13"/>
       <c r="F1" s="13"/>
       <c r="G1" s="13"/>
@@ -4343,11 +4787,11 @@
       <c r="A2" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="27"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="29"/>
       <c r="E2" s="13"/>
       <c r="F2" s="13"/>
       <c r="G2" s="13"/>
@@ -4367,15 +4811,15 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="13"/>
-      <c r="B4" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="30"/>
+      <c r="B4" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="32"/>
       <c r="I4" s="13"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -4750,11 +5194,11 @@
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="26"/>
-      <c r="D1" s="27"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="29"/>
       <c r="E1" s="13"/>
       <c r="F1" s="13"/>
       <c r="G1" s="13"/>
@@ -4765,11 +5209,11 @@
       <c r="A2" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="27"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="29"/>
       <c r="E2" s="13"/>
       <c r="F2" s="13"/>
       <c r="G2" s="13"/>
@@ -4789,15 +5233,15 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="13"/>
-      <c r="B4" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="30"/>
+      <c r="B4" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="32"/>
       <c r="I4" s="13"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">

--- a/timesheets/ash/timesheet_second_semester.xlsx
+++ b/timesheets/ash/timesheet_second_semester.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10414"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ash/Desktop/Boulder/Fa23 Classes/canopy/admin/timesheets/ash/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A832CFF-2FCD-F84F-AB60-B89BBEC99385}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{095B9EA9-BB32-2A4D-80EB-DA265BE07294}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20440" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20440" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Week1" sheetId="1" r:id="rId1"/>
@@ -26,6 +26,7 @@
     <sheet name="Week11" sheetId="14" r:id="rId11"/>
     <sheet name="Week12" sheetId="15" r:id="rId12"/>
     <sheet name="Week13" sheetId="16" r:id="rId13"/>
+    <sheet name="Week14" sheetId="17" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -48,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="33">
   <si>
     <t>Name</t>
   </si>
@@ -144,6 +145,9 @@
   </si>
   <si>
     <t>tasks much harder than expected :( but almost done!</t>
+  </si>
+  <si>
+    <t>Expo</t>
   </si>
 </sst>
 </file>
@@ -383,6 +387,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -413,7 +418,6 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Explanatory Text" xfId="1" builtinId="53"/>
@@ -713,11 +717,11 @@
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
       <c r="E1" s="8"/>
       <c r="F1" s="8"/>
       <c r="G1" s="8"/>
@@ -728,11 +732,11 @@
       <c r="A2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
@@ -752,15 +756,15 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="8"/>
-      <c r="B4" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
+      <c r="B4" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
       <c r="I4" s="8"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -1072,11 +1076,11 @@
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="28"/>
-      <c r="D1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="30"/>
       <c r="E1" s="13"/>
       <c r="F1" s="13"/>
       <c r="G1" s="13"/>
@@ -1087,11 +1091,11 @@
       <c r="A2" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="30"/>
       <c r="E2" s="13"/>
       <c r="F2" s="13"/>
       <c r="G2" s="13"/>
@@ -1111,15 +1115,15 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="13"/>
-      <c r="B4" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="32"/>
+      <c r="B4" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="33"/>
       <c r="I4" s="13"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -1499,11 +1503,11 @@
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="28"/>
-      <c r="D1" s="33"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="34"/>
       <c r="E1" s="13"/>
       <c r="F1" s="13"/>
       <c r="G1" s="13"/>
@@ -1514,11 +1518,11 @@
       <c r="A2" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="33"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="34"/>
       <c r="E2" s="13"/>
       <c r="F2" s="13"/>
       <c r="G2" s="13"/>
@@ -1538,15 +1542,15 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="13"/>
-      <c r="B4" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="34"/>
+      <c r="B4" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="35"/>
       <c r="I4" s="13"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -1903,8 +1907,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43AC76FF-E899-704D-B794-64B3C211A090}">
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H26" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1916,11 +1920,11 @@
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="28"/>
-      <c r="D1" s="33"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="34"/>
       <c r="E1" s="13" t="s">
         <v>30</v>
       </c>
@@ -1935,11 +1939,11 @@
       <c r="A2" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="33"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="34"/>
       <c r="E2" s="13"/>
       <c r="F2" s="13"/>
       <c r="G2" s="13"/>
@@ -1959,15 +1963,15 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="13"/>
-      <c r="B4" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="34"/>
+      <c r="B4" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="35"/>
       <c r="I4" s="13"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -2211,9 +2215,424 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="I16" s="35">
+      <c r="I16" s="25">
         <f>SUM(B16:H16)</f>
         <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="14"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="22"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="22"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" s="22"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="22"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="14"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" s="22"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B4:H4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4D50138-78E3-8F40-9F7F-1C393F988A83}">
+  <dimension ref="A1:I24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="22" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="29"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="29"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="13"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="13"/>
+      <c r="B4" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="13"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="17">
+        <v>45404</v>
+      </c>
+      <c r="C5" s="17">
+        <v>45405</v>
+      </c>
+      <c r="D5" s="17">
+        <v>45406</v>
+      </c>
+      <c r="E5" s="17">
+        <v>45407</v>
+      </c>
+      <c r="F5" s="17">
+        <v>45408</v>
+      </c>
+      <c r="G5" s="17">
+        <v>45409</v>
+      </c>
+      <c r="H5" s="17">
+        <v>45410</v>
+      </c>
+      <c r="I5" s="23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="19">
+        <v>1</v>
+      </c>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19">
+        <v>1</v>
+      </c>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19">
+        <v>1</v>
+      </c>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="20">
+        <v>2</v>
+      </c>
+      <c r="I12" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="19">
+        <v>3</v>
+      </c>
+      <c r="C13" s="19">
+        <v>3</v>
+      </c>
+      <c r="D13" s="19">
+        <v>3</v>
+      </c>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19">
+        <v>6</v>
+      </c>
+      <c r="G14" s="19"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="4">
+        <f>SUM(B6:B15)</f>
+        <v>4</v>
+      </c>
+      <c r="C16" s="4">
+        <f t="shared" ref="C16:H16" si="0">SUM(C6:C15)</f>
+        <v>3</v>
+      </c>
+      <c r="D16" s="4">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="E16" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F16" s="4">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="G16" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H16" s="4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I16" s="25">
+        <f>SUM(B16:H16)</f>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -2342,11 +2761,11 @@
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
       <c r="E1" s="8"/>
       <c r="F1" s="8"/>
       <c r="G1" s="8"/>
@@ -2357,11 +2776,11 @@
       <c r="A2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
@@ -2381,15 +2800,15 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="8"/>
-      <c r="B4" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
+      <c r="B4" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
       <c r="I4" s="8"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -2699,11 +3118,11 @@
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
       <c r="E1" s="8"/>
       <c r="F1" s="8"/>
       <c r="G1" s="8"/>
@@ -2714,11 +3133,11 @@
       <c r="A2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
@@ -2738,15 +3157,15 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="8"/>
-      <c r="B4" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
+      <c r="B4" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
       <c r="I4" s="8"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -3060,11 +3479,11 @@
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="28"/>
-      <c r="D1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="30"/>
       <c r="E1" s="13"/>
       <c r="F1" s="13"/>
       <c r="G1" s="13"/>
@@ -3076,11 +3495,11 @@
       <c r="A2" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="30"/>
       <c r="E2" s="13"/>
       <c r="F2" s="13"/>
       <c r="G2" s="13"/>
@@ -3102,15 +3521,15 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="13"/>
-      <c r="B4" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="32"/>
+      <c r="B4" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="33"/>
       <c r="I4" s="13"/>
       <c r="J4" s="14"/>
     </row>
@@ -3510,11 +3929,11 @@
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="28"/>
-      <c r="D1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="30"/>
       <c r="E1" s="13"/>
       <c r="F1" s="13"/>
       <c r="G1" s="13"/>
@@ -3525,11 +3944,11 @@
       <c r="A2" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="30"/>
       <c r="E2" s="13"/>
       <c r="F2" s="13"/>
       <c r="G2" s="13"/>
@@ -3549,15 +3968,15 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="13"/>
-      <c r="B4" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="32"/>
+      <c r="B4" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="33"/>
       <c r="I4" s="13"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -3930,11 +4349,11 @@
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="28"/>
-      <c r="D1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="30"/>
       <c r="E1" s="13"/>
       <c r="F1" s="13"/>
       <c r="G1" s="13"/>
@@ -3945,11 +4364,11 @@
       <c r="A2" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="30"/>
       <c r="E2" s="13"/>
       <c r="F2" s="13"/>
       <c r="G2" s="13"/>
@@ -3969,15 +4388,15 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="13"/>
-      <c r="B4" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="32"/>
+      <c r="B4" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="33"/>
       <c r="I4" s="13"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -4352,11 +4771,11 @@
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="28"/>
-      <c r="D1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="30"/>
       <c r="E1" s="13"/>
       <c r="F1" s="13"/>
       <c r="G1" s="13"/>
@@ -4367,11 +4786,11 @@
       <c r="A2" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="30"/>
       <c r="E2" s="13"/>
       <c r="F2" s="13"/>
       <c r="G2" s="13"/>
@@ -4391,15 +4810,15 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="13"/>
-      <c r="B4" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="32"/>
+      <c r="B4" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="33"/>
       <c r="I4" s="13"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -4772,11 +5191,11 @@
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="28"/>
-      <c r="D1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="30"/>
       <c r="E1" s="13"/>
       <c r="F1" s="13"/>
       <c r="G1" s="13"/>
@@ -4787,11 +5206,11 @@
       <c r="A2" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="30"/>
       <c r="E2" s="13"/>
       <c r="F2" s="13"/>
       <c r="G2" s="13"/>
@@ -4811,15 +5230,15 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="13"/>
-      <c r="B4" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="32"/>
+      <c r="B4" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="33"/>
       <c r="I4" s="13"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -5194,11 +5613,11 @@
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="28"/>
-      <c r="D1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="30"/>
       <c r="E1" s="13"/>
       <c r="F1" s="13"/>
       <c r="G1" s="13"/>
@@ -5209,11 +5628,11 @@
       <c r="A2" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="30"/>
       <c r="E2" s="13"/>
       <c r="F2" s="13"/>
       <c r="G2" s="13"/>
@@ -5233,15 +5652,15 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="13"/>
-      <c r="B4" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="32"/>
+      <c r="B4" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="33"/>
       <c r="I4" s="13"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
